--- a/py_server/tomatoall.xlsx
+++ b/py_server/tomatoall.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="22188" windowHeight="9144"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -64,75 +67,928 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd-mm-yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="24">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -322,20 +1178,24 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:P129"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="D127" sqref="D127"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" customHeight="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -385,9 +1245,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customHeight="1" spans="1:16">
       <c r="A2" s="3">
-        <v>41640.0</v>
+        <v>41640</v>
       </c>
       <c r="B2" s="4">
         <v>1556.45</v>
@@ -399,10 +1259,10 @@
         <v>1524.38</v>
       </c>
       <c r="E2" s="4">
-        <v>1920.0</v>
+        <v>1920</v>
       </c>
       <c r="F2" s="4">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="G2" s="4">
         <v>1891.94</v>
@@ -435,9 +1295,9 @@
         <v>1493.06</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customHeight="1" spans="1:16">
       <c r="A3" s="3">
-        <v>41671.0</v>
+        <v>41671</v>
       </c>
       <c r="B3" s="4">
         <v>1031.43</v>
@@ -449,7 +1309,7 @@
         <v>1239.19</v>
       </c>
       <c r="E3" s="4">
-        <v>1510.0</v>
+        <v>1510</v>
       </c>
       <c r="F3" s="4">
         <v>760.71</v>
@@ -485,9 +1345,9 @@
         <v>1108.8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customHeight="1" spans="1:16">
       <c r="A4" s="3">
-        <v>41699.0</v>
+        <v>41699</v>
       </c>
       <c r="B4" s="4">
         <v>1496.88</v>
@@ -505,7 +1365,7 @@
         <v>929.55</v>
       </c>
       <c r="G4" s="4">
-        <v>1165.0</v>
+        <v>1165</v>
       </c>
       <c r="H4" s="4">
         <v>1031.69</v>
@@ -517,7 +1377,7 @@
         <v>539.47</v>
       </c>
       <c r="K4" s="4">
-        <v>1284.0</v>
+        <v>1284</v>
       </c>
       <c r="L4" s="4">
         <v>683.67</v>
@@ -535,9 +1395,9 @@
         <v>1120.05</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customHeight="1" spans="1:16">
       <c r="A5" s="3">
-        <v>41730.0</v>
+        <v>41730</v>
       </c>
       <c r="B5" s="4">
         <v>1476.92</v>
@@ -570,7 +1430,7 @@
         <v>1270.27</v>
       </c>
       <c r="L5" s="4">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="M5" s="4">
         <v>926.53</v>
@@ -585,9 +1445,9 @@
         <v>1272.3</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customHeight="1" spans="1:16">
       <c r="A6" s="3">
-        <v>41760.0</v>
+        <v>41760</v>
       </c>
       <c r="B6" s="4">
         <v>1602.94</v>
@@ -611,7 +1471,7 @@
         <v>1197.39</v>
       </c>
       <c r="I6" s="4">
-        <v>890.0</v>
+        <v>890</v>
       </c>
       <c r="J6" s="4">
         <v>1449.4</v>
@@ -635,9 +1495,9 @@
         <v>1343.25</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customHeight="1" spans="1:16">
       <c r="A7" s="3">
-        <v>41791.0</v>
+        <v>41791</v>
       </c>
       <c r="B7" s="4">
         <v>1675.68</v>
@@ -667,7 +1527,7 @@
         <v>1519.51</v>
       </c>
       <c r="K7" s="4">
-        <v>1150.0</v>
+        <v>1150</v>
       </c>
       <c r="L7" s="4">
         <v>732.46</v>
@@ -685,9 +1545,9 @@
         <v>1309.43</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customHeight="1" spans="1:16">
       <c r="A8" s="3">
-        <v>41821.0</v>
+        <v>41821</v>
       </c>
       <c r="B8" s="4">
         <v>3915.12</v>
@@ -735,12 +1595,12 @@
         <v>2881.3</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customHeight="1" spans="1:16">
       <c r="A9" s="3">
-        <v>41852.0</v>
+        <v>41852</v>
       </c>
       <c r="B9" s="4">
-        <v>7325.0</v>
+        <v>7325</v>
       </c>
       <c r="C9" s="4">
         <v>3152.16</v>
@@ -758,7 +1618,7 @@
         <v>4207.84</v>
       </c>
       <c r="H9" s="4">
-        <v>4190.0</v>
+        <v>4190</v>
       </c>
       <c r="I9" s="4">
         <v>3840.89</v>
@@ -779,15 +1639,15 @@
         <v>5654.93</v>
       </c>
       <c r="O9" s="4">
-        <v>3850.0</v>
+        <v>3850</v>
       </c>
       <c r="P9" s="4">
         <v>4163.22</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customHeight="1" spans="1:16">
       <c r="A10" s="3">
-        <v>41883.0</v>
+        <v>41883</v>
       </c>
       <c r="B10" s="4">
         <v>5103.57</v>
@@ -835,9 +1695,9 @@
         <v>2980.48</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" customHeight="1" spans="1:16">
       <c r="A11" s="3">
-        <v>41913.0</v>
+        <v>41913</v>
       </c>
       <c r="B11" s="4">
         <v>3391.67</v>
@@ -846,13 +1706,13 @@
         <v>1937.8</v>
       </c>
       <c r="D11" s="4">
-        <v>3201.0</v>
+        <v>3201</v>
       </c>
       <c r="E11" s="4">
         <v>3221.43</v>
       </c>
       <c r="F11" s="4">
-        <v>1598.0</v>
+        <v>1598</v>
       </c>
       <c r="G11" s="4">
         <v>1822.92</v>
@@ -870,7 +1730,7 @@
         <v>2658.97</v>
       </c>
       <c r="L11" s="4">
-        <v>2175.0</v>
+        <v>2175</v>
       </c>
       <c r="M11" s="4">
         <v>930.77</v>
@@ -885,9 +1745,9 @@
         <v>2347.7</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customHeight="1" spans="1:16">
       <c r="A12" s="3">
-        <v>41944.0</v>
+        <v>41944</v>
       </c>
       <c r="B12" s="4">
         <v>2341.94</v>
@@ -935,9 +1795,9 @@
         <v>1824.51</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" customHeight="1" spans="1:16">
       <c r="A13" s="3">
-        <v>41974.0</v>
+        <v>41974</v>
       </c>
       <c r="B13" s="4">
         <v>1859.62</v>
@@ -961,7 +1821,7 @@
         <v>1223.31</v>
       </c>
       <c r="I13" s="4">
-        <v>1544.0</v>
+        <v>1544</v>
       </c>
       <c r="J13" s="4">
         <v>1507.95</v>
@@ -985,9 +1845,9 @@
         <v>1742.46</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" customHeight="1" spans="1:16">
       <c r="A14" s="3">
-        <v>42005.0</v>
+        <v>42005</v>
       </c>
       <c r="B14" s="4">
         <v>1473.58</v>
@@ -1020,7 +1880,7 @@
         <v>2471.7</v>
       </c>
       <c r="L14" s="4">
-        <v>1057.0</v>
+        <v>1057</v>
       </c>
       <c r="M14" s="4">
         <v>1002.94</v>
@@ -1035,12 +1895,12 @@
         <v>1739.1</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" customHeight="1" spans="1:16">
       <c r="A15" s="3">
-        <v>42036.0</v>
+        <v>42036</v>
       </c>
       <c r="B15" s="4">
-        <v>1236.0</v>
+        <v>1236</v>
       </c>
       <c r="C15" s="4">
         <v>1290.25</v>
@@ -1067,10 +1927,10 @@
         <v>750.67</v>
       </c>
       <c r="K15" s="4">
-        <v>2344.0</v>
+        <v>2344</v>
       </c>
       <c r="L15" s="4">
-        <v>1183.0</v>
+        <v>1183</v>
       </c>
       <c r="M15" s="4">
         <v>847.5</v>
@@ -1085,9 +1945,9 @@
         <v>1559.27</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" customHeight="1" spans="1:16">
       <c r="A16" s="3">
-        <v>42064.0</v>
+        <v>42064</v>
       </c>
       <c r="B16" s="4">
         <v>1501.96</v>
@@ -1096,10 +1956,10 @@
         <v>1287.62</v>
       </c>
       <c r="D16" s="4">
-        <v>1650.0</v>
+        <v>1650</v>
       </c>
       <c r="E16" s="4">
-        <v>2429.0</v>
+        <v>2429</v>
       </c>
       <c r="F16" s="4">
         <v>1023.26</v>
@@ -1135,9 +1995,9 @@
         <v>1517.38</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" customHeight="1" spans="1:16">
       <c r="A17" s="3">
-        <v>42095.0</v>
+        <v>42095</v>
       </c>
       <c r="B17" s="4">
         <v>1155.56</v>
@@ -1170,7 +2030,7 @@
         <v>2209.09</v>
       </c>
       <c r="L17" s="4">
-        <v>1128.0</v>
+        <v>1128</v>
       </c>
       <c r="M17" s="4">
         <v>1098.92</v>
@@ -1179,15 +2039,15 @@
         <v>1716.18</v>
       </c>
       <c r="O17" s="4">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="P17" s="4">
         <v>1519.27</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" customHeight="1" spans="1:16">
       <c r="A18" s="3">
-        <v>42125.0</v>
+        <v>42125</v>
       </c>
       <c r="B18" s="4">
         <v>1651.92</v>
@@ -1220,7 +2080,7 @@
         <v>2361.11</v>
       </c>
       <c r="L18" s="4">
-        <v>1350.0</v>
+        <v>1350</v>
       </c>
       <c r="M18" s="4">
         <v>2145.65</v>
@@ -1235,9 +2095,9 @@
         <v>2007.58</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" customHeight="1" spans="1:16">
       <c r="A19" s="3">
-        <v>42156.0</v>
+        <v>42156</v>
       </c>
       <c r="B19" s="4">
         <v>2293.88</v>
@@ -1285,15 +2145,15 @@
         <v>2008.32</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" customHeight="1" spans="1:16">
       <c r="A20" s="3">
-        <v>42186.0</v>
+        <v>42186</v>
       </c>
       <c r="B20" s="4">
         <v>2795.08</v>
       </c>
       <c r="C20" s="4">
-        <v>1558.0</v>
+        <v>1558</v>
       </c>
       <c r="D20" s="4">
         <v>1811.73</v>
@@ -1335,9 +2195,9 @@
         <v>2265.65</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" customHeight="1" spans="1:16">
       <c r="A21" s="3">
-        <v>42217.0</v>
+        <v>42217</v>
       </c>
       <c r="B21" s="4">
         <v>2946.55</v>
@@ -1370,7 +2230,7 @@
         <v>1621.67</v>
       </c>
       <c r="L21" s="4">
-        <v>1354.0</v>
+        <v>1354</v>
       </c>
       <c r="M21" s="4">
         <v>934.62</v>
@@ -1385,9 +2245,9 @@
         <v>1945.32</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" customHeight="1" spans="1:16">
       <c r="A22" s="3">
-        <v>42248.0</v>
+        <v>42248</v>
       </c>
       <c r="B22" s="4">
         <v>2935.48</v>
@@ -1396,7 +2256,7 @@
         <v>1717.67</v>
       </c>
       <c r="D22" s="4">
-        <v>2005.0</v>
+        <v>2005</v>
       </c>
       <c r="E22" s="4">
         <v>2216.67</v>
@@ -1435,9 +2295,9 @@
         <v>1952.28</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" customHeight="1" spans="1:16">
       <c r="A23" s="3">
-        <v>42278.0</v>
+        <v>42278</v>
       </c>
       <c r="B23" s="4">
         <v>3043.18</v>
@@ -1446,7 +2306,7 @@
         <v>1770.95</v>
       </c>
       <c r="D23" s="4">
-        <v>1800.0</v>
+        <v>1800</v>
       </c>
       <c r="E23" s="4">
         <v>2542.65</v>
@@ -1479,15 +2339,15 @@
         <v>3526.67</v>
       </c>
       <c r="O23" s="4">
-        <v>3175.0</v>
+        <v>3175</v>
       </c>
       <c r="P23" s="4">
         <v>2205.8</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" customHeight="1" spans="1:16">
       <c r="A24" s="3">
-        <v>42309.0</v>
+        <v>42309</v>
       </c>
       <c r="B24" s="4">
         <v>3114.04</v>
@@ -1526,7 +2386,7 @@
         <v>3925.9</v>
       </c>
       <c r="N24" s="4">
-        <v>3718.0</v>
+        <v>3718</v>
       </c>
       <c r="O24" s="4">
         <v>3567.92</v>
@@ -1535,9 +2395,9 @@
         <v>3178.01</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" customHeight="1" spans="1:16">
       <c r="A25" s="3">
-        <v>42339.0</v>
+        <v>42339</v>
       </c>
       <c r="B25" s="4">
         <v>2047.58</v>
@@ -1579,21 +2439,21 @@
         <v>1963.76</v>
       </c>
       <c r="O25" s="4">
-        <v>2035.0</v>
+        <v>2035</v>
       </c>
       <c r="P25" s="4">
         <v>2438.34</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" customHeight="1" spans="1:16">
       <c r="A26" s="3">
-        <v>42370.0</v>
+        <v>42370</v>
       </c>
       <c r="B26" s="4">
         <v>1716.39</v>
       </c>
       <c r="C26" s="4">
-        <v>1440.0</v>
+        <v>1440</v>
       </c>
       <c r="D26" s="4">
         <v>1907.76</v>
@@ -1635,12 +2495,12 @@
         <v>2302.43</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" customHeight="1" spans="1:16">
       <c r="A27" s="3">
-        <v>42401.0</v>
+        <v>42401</v>
       </c>
       <c r="B27" s="4">
-        <v>1020.0</v>
+        <v>1020</v>
       </c>
       <c r="C27" s="4">
         <v>1087.07</v>
@@ -1685,9 +2545,9 @@
         <v>1536.53</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" customHeight="1" spans="1:16">
       <c r="A28" s="3">
-        <v>42430.0</v>
+        <v>42430</v>
       </c>
       <c r="B28" s="4">
         <v>908.06</v>
@@ -1735,9 +2595,9 @@
         <v>1271.63</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" customHeight="1" spans="1:16">
       <c r="A29" s="3">
-        <v>42461.0</v>
+        <v>42461</v>
       </c>
       <c r="B29" s="4">
         <v>872.64</v>
@@ -1752,7 +2612,7 @@
         <v>1501.67</v>
       </c>
       <c r="F29" s="4">
-        <v>1200.0</v>
+        <v>1200</v>
       </c>
       <c r="G29" s="4">
         <v>1728.75</v>
@@ -1785,9 +2645,9 @@
         <v>1435.16</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" customHeight="1" spans="1:16">
       <c r="A30" s="3">
-        <v>42491.0</v>
+        <v>42491</v>
       </c>
       <c r="B30" s="4">
         <v>1902.99</v>
@@ -1835,9 +2695,9 @@
         <v>2164.7</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" customHeight="1" spans="1:16">
       <c r="A31" s="3">
-        <v>42522.0</v>
+        <v>42522</v>
       </c>
       <c r="B31" s="4">
         <v>2719.4</v>
@@ -1885,9 +2745,9 @@
         <v>3352.77</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" customHeight="1" spans="1:16">
       <c r="A32" s="3">
-        <v>42552.0</v>
+        <v>42552</v>
       </c>
       <c r="B32" s="4">
         <v>4359.09</v>
@@ -1920,7 +2780,7 @@
         <v>3880.28</v>
       </c>
       <c r="L32" s="4">
-        <v>2700.0</v>
+        <v>2700</v>
       </c>
       <c r="M32" s="4">
         <v>1741.94</v>
@@ -1935,9 +2795,9 @@
         <v>3330.13</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" customHeight="1" spans="1:16">
       <c r="A33" s="3">
-        <v>42583.0</v>
+        <v>42583</v>
       </c>
       <c r="B33" s="4">
         <v>3540.85</v>
@@ -1952,7 +2812,7 @@
         <v>3329.03</v>
       </c>
       <c r="F33" s="4">
-        <v>1454.0</v>
+        <v>1454</v>
       </c>
       <c r="G33" s="4">
         <v>1495.56</v>
@@ -1964,7 +2824,7 @@
         <v>1385.6</v>
       </c>
       <c r="J33" s="4">
-        <v>1740.0</v>
+        <v>1740</v>
       </c>
       <c r="K33" s="4">
         <v>2649.21</v>
@@ -1985,9 +2845,9 @@
         <v>2347.35</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" customHeight="1" spans="1:16">
       <c r="A34" s="3">
-        <v>42614.0</v>
+        <v>42614</v>
       </c>
       <c r="B34" s="4">
         <v>2632.35</v>
@@ -1996,7 +2856,7 @@
         <v>1497.41</v>
       </c>
       <c r="D34" s="4">
-        <v>2655.0</v>
+        <v>2655</v>
       </c>
       <c r="E34" s="4">
         <v>2468.1</v>
@@ -2035,9 +2895,9 @@
         <v>1885.13</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" customHeight="1" spans="1:16">
       <c r="A35" s="3">
-        <v>42644.0</v>
+        <v>42644</v>
       </c>
       <c r="B35" s="4">
         <v>2754.69</v>
@@ -2085,9 +2945,9 @@
         <v>1983.94</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" customHeight="1" spans="1:16">
       <c r="A36" s="3">
-        <v>42675.0</v>
+        <v>42675</v>
       </c>
       <c r="B36" s="4">
         <v>2293.85</v>
@@ -2102,7 +2962,7 @@
         <v>2219.83</v>
       </c>
       <c r="F36" s="4">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="G36" s="4">
         <v>1118.98</v>
@@ -2114,7 +2974,7 @@
         <v>683.33</v>
       </c>
       <c r="J36" s="4">
-        <v>1575.0</v>
+        <v>1575</v>
       </c>
       <c r="K36" s="4">
         <v>1990.14</v>
@@ -2123,7 +2983,7 @@
         <v>1042.65</v>
       </c>
       <c r="M36" s="4">
-        <v>712.0</v>
+        <v>712</v>
       </c>
       <c r="N36" s="4">
         <v>1586.59</v>
@@ -2135,9 +2995,9 @@
         <v>1652.56</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" customHeight="1" spans="1:16">
       <c r="A37" s="3">
-        <v>42705.0</v>
+        <v>42705</v>
       </c>
       <c r="B37" s="4">
         <v>1468.66</v>
@@ -2185,9 +3045,9 @@
         <v>1267.74</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" customHeight="1" spans="1:16">
       <c r="A38" s="3">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B38" s="4">
         <v>885.19</v>
@@ -2235,9 +3095,9 @@
         <v>1081.7</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" customHeight="1" spans="1:16">
       <c r="A39" s="3">
-        <v>42767.0</v>
+        <v>42767</v>
       </c>
       <c r="B39" s="4">
         <v>850.98</v>
@@ -2255,7 +3115,7 @@
         <v>1413.41</v>
       </c>
       <c r="G39" s="4">
-        <v>2185.0</v>
+        <v>2185</v>
       </c>
       <c r="H39" s="4">
         <v>695.86</v>
@@ -2285,9 +3145,9 @@
         <v>1154.56</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" customHeight="1" spans="1:16">
       <c r="A40" s="3">
-        <v>42795.0</v>
+        <v>42795</v>
       </c>
       <c r="B40" s="4">
         <v>752.83</v>
@@ -2320,7 +3180,7 @@
         <v>1954.76</v>
       </c>
       <c r="L40" s="4">
-        <v>660.0</v>
+        <v>660</v>
       </c>
       <c r="M40" s="4">
         <v>2024.17</v>
@@ -2335,9 +3195,9 @@
         <v>1242.5</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" customHeight="1" spans="1:16">
       <c r="A41" s="3">
-        <v>42826.0</v>
+        <v>42826</v>
       </c>
       <c r="B41" s="4">
         <v>746.51</v>
@@ -2346,7 +3206,7 @@
         <v>796.55</v>
       </c>
       <c r="D41" s="4">
-        <v>1170.0</v>
+        <v>1170</v>
       </c>
       <c r="E41" s="4">
         <v>1017.86</v>
@@ -2385,15 +3245,15 @@
         <v>1279.48</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" customHeight="1" spans="1:16">
       <c r="A42" s="3">
-        <v>42856.0</v>
+        <v>42856</v>
       </c>
       <c r="B42" s="4">
-        <v>822.0</v>
+        <v>822</v>
       </c>
       <c r="C42" s="4">
-        <v>550.0</v>
+        <v>550</v>
       </c>
       <c r="D42" s="4">
         <v>1237.1</v>
@@ -2435,9 +3295,9 @@
         <v>1199.72</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" customHeight="1" spans="1:16">
       <c r="A43" s="3">
-        <v>42887.0</v>
+        <v>42887</v>
       </c>
       <c r="B43" s="4">
         <v>1630.19</v>
@@ -2485,15 +3345,15 @@
         <v>1595.52</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" customHeight="1" spans="1:16">
       <c r="A44" s="3">
-        <v>42917.0</v>
+        <v>42917</v>
       </c>
       <c r="B44" s="4">
         <v>4048.08</v>
       </c>
       <c r="C44" s="4">
-        <v>3366.0</v>
+        <v>3366</v>
       </c>
       <c r="D44" s="4">
         <v>5136.71</v>
@@ -2535,9 +3395,9 @@
         <v>4761.43</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" customHeight="1" spans="1:16">
       <c r="A45" s="3">
-        <v>42948.0</v>
+        <v>42948</v>
       </c>
       <c r="B45" s="4">
         <v>5585.71</v>
@@ -2585,15 +3445,15 @@
         <v>4999.49</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" customHeight="1" spans="1:16">
       <c r="A46" s="3">
-        <v>42979.0</v>
+        <v>42979</v>
       </c>
       <c r="B46" s="4">
-        <v>3880.0</v>
+        <v>3880</v>
       </c>
       <c r="C46" s="4">
-        <v>1910.0</v>
+        <v>1910</v>
       </c>
       <c r="D46" s="4">
         <v>4091.39</v>
@@ -2614,7 +3474,7 @@
         <v>1516.11</v>
       </c>
       <c r="J46" s="4">
-        <v>2125.0</v>
+        <v>2125</v>
       </c>
       <c r="K46" s="4">
         <v>4164.77</v>
@@ -2635,12 +3495,12 @@
         <v>3267.61</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" customHeight="1" spans="1:16">
       <c r="A47" s="3">
-        <v>43009.0</v>
+        <v>43009</v>
       </c>
       <c r="B47" s="4">
-        <v>3000.0</v>
+        <v>3000</v>
       </c>
       <c r="C47" s="4">
         <v>2313.79</v>
@@ -2673,7 +3533,7 @@
         <v>1829.17</v>
       </c>
       <c r="M47" s="4">
-        <v>2648.0</v>
+        <v>2648</v>
       </c>
       <c r="N47" s="4">
         <v>2446.68</v>
@@ -2685,9 +3545,9 @@
         <v>2945.38</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" customHeight="1" spans="1:16">
       <c r="A48" s="3">
-        <v>43040.0</v>
+        <v>43040</v>
       </c>
       <c r="B48" s="4">
         <v>3308.11</v>
@@ -2729,15 +3589,15 @@
         <v>3386.29</v>
       </c>
       <c r="O48" s="4">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="P48" s="4">
-        <v>3806.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:16">
       <c r="A49" s="3">
-        <v>43070.0</v>
+        <v>43070</v>
       </c>
       <c r="B49" s="4">
         <v>2726.42</v>
@@ -2785,15 +3645,15 @@
         <v>2857.8</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" customHeight="1" spans="1:16">
       <c r="A50" s="3">
-        <v>43101.0</v>
+        <v>43101</v>
       </c>
       <c r="B50" s="4">
         <v>1932.65</v>
       </c>
       <c r="C50" s="4">
-        <v>750.0</v>
+        <v>750</v>
       </c>
       <c r="D50" s="4">
         <v>2547.5</v>
@@ -2835,9 +3695,9 @@
         <v>1717.83</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" customHeight="1" spans="1:16">
       <c r="A51" s="3">
-        <v>43132.0</v>
+        <v>43132</v>
       </c>
       <c r="B51" s="4">
         <v>1517.8</v>
@@ -2870,7 +3730,7 @@
         <v>2017.46</v>
       </c>
       <c r="L51" s="4">
-        <v>585.0</v>
+        <v>585</v>
       </c>
       <c r="M51" s="4">
         <v>621.17</v>
@@ -2885,9 +3745,9 @@
         <v>1360.25</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" customHeight="1" spans="1:16">
       <c r="A52" s="3">
-        <v>43160.0</v>
+        <v>43160</v>
       </c>
       <c r="B52" s="4">
         <v>1746.34</v>
@@ -2908,7 +3768,7 @@
         <v>1312.61</v>
       </c>
       <c r="H52" s="4">
-        <v>1152.0</v>
+        <v>1152</v>
       </c>
       <c r="I52" s="4">
         <v>755.7</v>
@@ -2935,9 +3795,9 @@
         <v>1198.23</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" customHeight="1" spans="1:16">
       <c r="A53" s="3">
-        <v>43191.0</v>
+        <v>43191</v>
       </c>
       <c r="B53" s="4">
         <v>1697.67</v>
@@ -2985,9 +3845,9 @@
         <v>1115.37</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" customHeight="1" spans="1:16">
       <c r="A54" s="3">
-        <v>43221.0</v>
+        <v>43221</v>
       </c>
       <c r="B54" s="4">
         <v>1635.29</v>
@@ -2996,13 +3856,13 @@
         <v>315.32</v>
       </c>
       <c r="D54" s="4">
-        <v>1960.0</v>
+        <v>1960</v>
       </c>
       <c r="E54" s="4">
         <v>974.6</v>
       </c>
       <c r="F54" s="4">
-        <v>1068.0</v>
+        <v>1068</v>
       </c>
       <c r="G54" s="4">
         <v>1289.01</v>
@@ -3035,9 +3895,9 @@
         <v>1112.79</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" customHeight="1" spans="1:16">
       <c r="A55" s="3">
-        <v>43252.0</v>
+        <v>43252</v>
       </c>
       <c r="B55" s="4">
         <v>1945.21</v>
@@ -3085,9 +3945,9 @@
         <v>1553.96</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" customHeight="1" spans="1:16">
       <c r="A56" s="3">
-        <v>43282.0</v>
+        <v>43282</v>
       </c>
       <c r="B56" s="4">
         <v>2876.11</v>
@@ -3135,9 +3995,9 @@
         <v>2142.36</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" customHeight="1" spans="1:16">
       <c r="A57" s="3">
-        <v>43313.0</v>
+        <v>43313</v>
       </c>
       <c r="B57" s="4">
         <v>2953.81</v>
@@ -3149,7 +4009,7 @@
         <v>2474.19</v>
       </c>
       <c r="E57" s="4">
-        <v>3125.0</v>
+        <v>3125</v>
       </c>
       <c r="F57" s="4">
         <v>1131.25</v>
@@ -3185,9 +4045,9 @@
         <v>2138.85</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" customHeight="1" spans="1:16">
       <c r="A58" s="3">
-        <v>43344.0</v>
+        <v>43344</v>
       </c>
       <c r="B58" s="4">
         <v>2416.95</v>
@@ -3196,7 +4056,7 @@
         <v>1018.33</v>
       </c>
       <c r="D58" s="4">
-        <v>2380.0</v>
+        <v>2380</v>
       </c>
       <c r="E58" s="4">
         <v>2648.33</v>
@@ -3235,18 +4095,18 @@
         <v>1842.74</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" customHeight="1" spans="1:16">
       <c r="A59" s="3">
-        <v>43374.0</v>
+        <v>43374</v>
       </c>
       <c r="B59" s="4">
         <v>2258.77</v>
       </c>
       <c r="C59" s="4">
-        <v>1155.0</v>
+        <v>1155</v>
       </c>
       <c r="D59" s="4">
-        <v>2275.0</v>
+        <v>2275</v>
       </c>
       <c r="E59" s="4">
         <v>2237.5</v>
@@ -3258,7 +4118,7 @@
         <v>1702.6</v>
       </c>
       <c r="H59" s="4">
-        <v>1600.0</v>
+        <v>1600</v>
       </c>
       <c r="I59" s="4">
         <v>911.78</v>
@@ -3273,7 +4133,7 @@
         <v>1050.7</v>
       </c>
       <c r="M59" s="4">
-        <v>945.0</v>
+        <v>945</v>
       </c>
       <c r="N59" s="4">
         <v>1516.52</v>
@@ -3285,9 +4145,9 @@
         <v>1727.11</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" customHeight="1" spans="1:16">
       <c r="A60" s="3">
-        <v>43405.0</v>
+        <v>43405</v>
       </c>
       <c r="B60" s="4">
         <v>2220.83</v>
@@ -3335,9 +4195,9 @@
         <v>1754.9</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" customHeight="1" spans="1:16">
       <c r="A61" s="3">
-        <v>43435.0</v>
+        <v>43435</v>
       </c>
       <c r="B61" s="4">
         <v>1794.12</v>
@@ -3385,9 +4245,9 @@
         <v>1615.45</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" customHeight="1" spans="1:16">
       <c r="A62" s="3">
-        <v>43466.0</v>
+        <v>43466</v>
       </c>
       <c r="B62" s="4">
         <v>1730.14</v>
@@ -3396,7 +4256,7 @@
         <v>1121.67</v>
       </c>
       <c r="D62" s="4">
-        <v>2125.0</v>
+        <v>2125</v>
       </c>
       <c r="E62" s="4">
         <v>1943.55</v>
@@ -3435,9 +4295,9 @@
         <v>1724.98</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" customHeight="1" spans="1:16">
       <c r="A63" s="3">
-        <v>43497.0</v>
+        <v>43497</v>
       </c>
       <c r="B63" s="4">
         <v>1430.3</v>
@@ -3446,7 +4306,7 @@
         <v>1101.39</v>
       </c>
       <c r="D63" s="4">
-        <v>2125.0</v>
+        <v>2125</v>
       </c>
       <c r="E63" s="4">
         <v>1772.68</v>
@@ -3485,9 +4345,9 @@
         <v>1464.54</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" customHeight="1" spans="1:16">
       <c r="A64" s="3">
-        <v>43525.0</v>
+        <v>43525</v>
       </c>
       <c r="B64" s="4">
         <v>1273.44</v>
@@ -3496,7 +4356,7 @@
         <v>1391.67</v>
       </c>
       <c r="D64" s="4">
-        <v>2125.0</v>
+        <v>2125</v>
       </c>
       <c r="E64" s="4">
         <v>2137.98</v>
@@ -3535,9 +4395,9 @@
         <v>1610.38</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" customHeight="1" spans="1:16">
       <c r="A65" s="3">
-        <v>43556.0</v>
+        <v>43556</v>
       </c>
       <c r="B65" s="4">
         <v>1457.5</v>
@@ -3546,7 +4406,7 @@
         <v>1179.17</v>
       </c>
       <c r="D65" s="4">
-        <v>2125.0</v>
+        <v>2125</v>
       </c>
       <c r="E65" s="4">
         <v>2291.67</v>
@@ -3585,18 +4445,18 @@
         <v>1997.89</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" customHeight="1" spans="1:16">
       <c r="A66" s="3">
-        <v>43586.0</v>
+        <v>43586</v>
       </c>
       <c r="B66" s="4">
         <v>2301.56</v>
       </c>
       <c r="C66" s="4">
-        <v>1395.0</v>
+        <v>1395</v>
       </c>
       <c r="D66" s="4">
-        <v>2125.0</v>
+        <v>2125</v>
       </c>
       <c r="E66" s="4">
         <v>2375.08</v>
@@ -3635,9 +4495,9 @@
         <v>2606.81</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" customHeight="1" spans="1:16">
       <c r="A67" s="3">
-        <v>43617.0</v>
+        <v>43617</v>
       </c>
       <c r="B67" s="4">
         <v>2954.78</v>
@@ -3685,9 +4545,9 @@
         <v>2906.43</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" customHeight="1" spans="1:16">
       <c r="A68" s="3">
-        <v>43647.0</v>
+        <v>43647</v>
       </c>
       <c r="B68" s="4">
         <v>3076.98</v>
@@ -3735,9 +4595,9 @@
         <v>3028.44</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" customHeight="1" spans="1:16">
       <c r="A69" s="3">
-        <v>43678.0</v>
+        <v>43678</v>
       </c>
       <c r="B69" s="4">
         <v>3449.18</v>
@@ -3785,9 +4645,9 @@
         <v>3171.17</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" customHeight="1" spans="1:16">
       <c r="A70" s="3">
-        <v>43709.0</v>
+        <v>43709</v>
       </c>
       <c r="B70" s="4">
         <v>2858.68</v>
@@ -3832,12 +4692,12 @@
         <v>3848.91</v>
       </c>
       <c r="P70" s="4">
-        <v>2514.0</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:16">
       <c r="A71" s="3">
-        <v>43739.0</v>
+        <v>43739</v>
       </c>
       <c r="B71" s="4">
         <v>3421.24</v>
@@ -3885,9 +4745,9 @@
         <v>3159.33</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" customHeight="1" spans="1:16">
       <c r="A72" s="3">
-        <v>43770.0</v>
+        <v>43770</v>
       </c>
       <c r="B72" s="4">
         <v>3310.77</v>
@@ -3935,9 +4795,9 @@
         <v>3119.56</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" customHeight="1" spans="1:16">
       <c r="A73" s="3">
-        <v>43800.0</v>
+        <v>43800</v>
       </c>
       <c r="B73" s="4">
         <v>2560.77</v>
@@ -3985,9 +4845,9 @@
         <v>2215.59</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" customHeight="1" spans="1:16">
       <c r="A74" s="3">
-        <v>43831.0</v>
+        <v>43831</v>
       </c>
       <c r="B74" s="4">
         <v>2290.65</v>
@@ -4035,9 +4895,9 @@
         <v>1978.53</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" customHeight="1" spans="1:16">
       <c r="A75" s="3">
-        <v>43862.0</v>
+        <v>43862</v>
       </c>
       <c r="B75" s="4">
         <v>2127.13</v>
@@ -4085,9 +4945,9 @@
         <v>1627.07</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" customHeight="1" spans="1:16">
       <c r="A76" s="3">
-        <v>43891.0</v>
+        <v>43891</v>
       </c>
       <c r="B76" s="4">
         <v>1823.02</v>
@@ -4135,9 +4995,9 @@
         <v>1542.81</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" customHeight="1" spans="1:16">
       <c r="A77" s="3">
-        <v>43922.0</v>
+        <v>43922</v>
       </c>
       <c r="B77" s="4">
         <v>1717.38</v>
@@ -4185,9 +5045,9 @@
         <v>1604.28</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" customHeight="1" spans="1:16">
       <c r="A78" s="3">
-        <v>43952.0</v>
+        <v>43952</v>
       </c>
       <c r="B78" s="4">
         <v>1512.2</v>
@@ -4235,9 +5095,9 @@
         <v>1362.68</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" customHeight="1" spans="1:16">
       <c r="A79" s="3">
-        <v>43983.0</v>
+        <v>43983</v>
       </c>
       <c r="B79" s="4">
         <v>1733.44</v>
@@ -4246,7 +5106,7 @@
         <v>851.67</v>
       </c>
       <c r="D79" s="4">
-        <v>1440.0</v>
+        <v>1440</v>
       </c>
       <c r="E79" s="4">
         <v>1098.13</v>
@@ -4285,9 +5145,9 @@
         <v>1814.45</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" customHeight="1" spans="1:16">
       <c r="A80" s="3">
-        <v>44013.0</v>
+        <v>44013</v>
       </c>
       <c r="B80" s="4">
         <v>4290.19</v>
@@ -4323,7 +5183,7 @@
         <v>3927.71</v>
       </c>
       <c r="M80" s="4">
-        <v>3318.0</v>
+        <v>3318</v>
       </c>
       <c r="N80" s="4">
         <v>3617.41</v>
@@ -4335,15 +5195,15 @@
         <v>3938.3</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" customHeight="1" spans="1:16">
       <c r="A81" s="3">
-        <v>44044.0</v>
+        <v>44044</v>
       </c>
       <c r="B81" s="4">
         <v>4942.07</v>
       </c>
       <c r="C81" s="4">
-        <v>2570.0</v>
+        <v>2570</v>
       </c>
       <c r="D81" s="4">
         <v>3459.72</v>
@@ -4385,9 +5245,9 @@
         <v>3738.33</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" customHeight="1" spans="1:16">
       <c r="A82" s="3">
-        <v>44075.0</v>
+        <v>44075</v>
       </c>
       <c r="B82" s="4">
         <v>4985.9</v>
@@ -4408,7 +5268,7 @@
         <v>3912.16</v>
       </c>
       <c r="H82" s="4">
-        <v>4085.0</v>
+        <v>4085</v>
       </c>
       <c r="I82" s="4">
         <v>2859.9</v>
@@ -4435,9 +5295,9 @@
         <v>4235.58</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" customHeight="1" spans="1:16">
       <c r="A83" s="3">
-        <v>44105.0</v>
+        <v>44105</v>
       </c>
       <c r="B83" s="4">
         <v>4745.74</v>
@@ -4485,9 +5345,9 @@
         <v>3699.63</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" customHeight="1" spans="1:16">
       <c r="A84" s="3">
-        <v>44136.0</v>
+        <v>44136</v>
       </c>
       <c r="B84" s="4">
         <v>4715.7</v>
@@ -4535,9 +5395,9 @@
         <v>3344.27</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" customHeight="1" spans="1:16">
       <c r="A85" s="3">
-        <v>44166.0</v>
+        <v>44166</v>
       </c>
       <c r="B85" s="4">
         <v>3488.36</v>
@@ -4549,7 +5409,7 @@
         <v>3476.79</v>
       </c>
       <c r="E85" s="4">
-        <v>3116.0</v>
+        <v>3116</v>
       </c>
       <c r="F85" s="4">
         <v>1692.71</v>
@@ -4585,9 +5445,9 @@
         <v>2756.5</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" customHeight="1" spans="1:16">
       <c r="A86" s="3">
-        <v>44197.0</v>
+        <v>44197</v>
       </c>
       <c r="B86" s="4">
         <v>1978.36</v>
@@ -4614,13 +5474,13 @@
         <v>912.25</v>
       </c>
       <c r="J86" s="4">
-        <v>1690.0</v>
+        <v>1690</v>
       </c>
       <c r="K86" s="4">
         <v>2326.92</v>
       </c>
       <c r="L86" s="4">
-        <v>1400.0</v>
+        <v>1400</v>
       </c>
       <c r="M86" s="4">
         <v>1411.52</v>
@@ -4635,9 +5495,9 @@
         <v>1912.39</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" customHeight="1" spans="1:16">
       <c r="A87" s="3">
-        <v>44228.0</v>
+        <v>44228</v>
       </c>
       <c r="B87" s="4">
         <v>1288.41</v>
@@ -4652,7 +5512,7 @@
         <v>1633.91</v>
       </c>
       <c r="F87" s="4">
-        <v>1560.0</v>
+        <v>1560</v>
       </c>
       <c r="G87" s="4">
         <v>2501.14</v>
@@ -4685,9 +5545,9 @@
         <v>1688.93</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" customHeight="1" spans="1:16">
       <c r="A88" s="3">
-        <v>44256.0</v>
+        <v>44256</v>
       </c>
       <c r="B88" s="4">
         <v>1044.31</v>
@@ -4735,9 +5595,9 @@
         <v>1319.42</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" customHeight="1" spans="1:16">
       <c r="A89" s="3">
-        <v>44287.0</v>
+        <v>44287</v>
       </c>
       <c r="B89" s="4">
         <v>1071.99</v>
@@ -4770,7 +5630,7 @@
         <v>1844.26</v>
       </c>
       <c r="L89" s="4">
-        <v>1225.0</v>
+        <v>1225</v>
       </c>
       <c r="M89" s="4">
         <v>823.38</v>
@@ -4785,15 +5645,15 @@
         <v>1309.48</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" customHeight="1" spans="1:16">
       <c r="A90" s="3">
-        <v>44317.0</v>
+        <v>44317</v>
       </c>
       <c r="B90" s="4">
         <v>1158.85</v>
       </c>
       <c r="C90" s="4">
-        <v>505.0</v>
+        <v>505</v>
       </c>
       <c r="D90" s="4">
         <v>1478.67</v>
@@ -4835,9 +5695,9 @@
         <v>1264.69</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" customHeight="1" spans="1:16">
       <c r="A91" s="3">
-        <v>44348.0</v>
+        <v>44348</v>
       </c>
       <c r="B91" s="4">
         <v>1715.33</v>
@@ -4879,15 +5739,15 @@
         <v>1430.63</v>
       </c>
       <c r="O91" s="4">
-        <v>2192.0</v>
+        <v>2192</v>
       </c>
       <c r="P91" s="4">
         <v>1515.94</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" customHeight="1" spans="1:16">
       <c r="A92" s="3">
-        <v>44378.0</v>
+        <v>44378</v>
       </c>
       <c r="B92" s="4">
         <v>2492.74</v>
@@ -4935,9 +5795,9 @@
         <v>2025.53</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" customHeight="1" spans="1:16">
       <c r="A93" s="3">
-        <v>44409.0</v>
+        <v>44409</v>
       </c>
       <c r="B93" s="4">
         <v>2760.46</v>
@@ -4961,7 +5821,7 @@
         <v>1970.4</v>
       </c>
       <c r="I93" s="4">
-        <v>1050.0</v>
+        <v>1050</v>
       </c>
       <c r="J93" s="4">
         <v>2451.72</v>
@@ -4985,9 +5845,9 @@
         <v>2264.63</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" customHeight="1" spans="1:16">
       <c r="A94" s="3">
-        <v>44440.0</v>
+        <v>44440</v>
       </c>
       <c r="B94" s="4">
         <v>2657.31</v>
@@ -5035,9 +5895,9 @@
         <v>2116.48</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" customHeight="1" spans="1:16">
       <c r="A95" s="3">
-        <v>44470.0</v>
+        <v>44470</v>
       </c>
       <c r="B95" s="4">
         <v>3886.98</v>
@@ -5085,9 +5945,9 @@
         <v>3399.91</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" customHeight="1" spans="1:16">
       <c r="A96" s="3">
-        <v>44501.0</v>
+        <v>44501</v>
       </c>
       <c r="B96" s="4">
         <v>5083.75</v>
@@ -5135,9 +5995,9 @@
         <v>4708.2</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" customHeight="1" spans="1:16">
       <c r="A97" s="3">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="B97" s="4">
         <v>4452.54</v>
@@ -5185,9 +6045,9 @@
         <v>4332.64</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" customHeight="1" spans="1:16">
       <c r="A98" s="3">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="B98" s="4">
         <v>2820.51</v>
@@ -5235,9 +6095,9 @@
         <v>2714.39</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" customHeight="1" spans="1:16">
       <c r="A99" s="3">
-        <v>44593.0</v>
+        <v>44593</v>
       </c>
       <c r="B99" s="4">
         <v>1852.06</v>
@@ -5267,7 +6127,7 @@
         <v>1755.97</v>
       </c>
       <c r="K99" s="4">
-        <v>2552.0</v>
+        <v>2552</v>
       </c>
       <c r="L99" s="4">
         <v>1578.35</v>
@@ -5285,9 +6145,9 @@
         <v>1949.69</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" customHeight="1" spans="1:16">
       <c r="A100" s="3">
-        <v>44621.0</v>
+        <v>44621</v>
       </c>
       <c r="B100" s="4">
         <v>1737.55</v>
@@ -5335,9 +6195,9 @@
         <v>1689.83</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" customHeight="1" spans="1:16">
       <c r="A101" s="3">
-        <v>44652.0</v>
+        <v>44652</v>
       </c>
       <c r="B101" s="4">
         <v>1696.84</v>
@@ -5385,9 +6245,9 @@
         <v>1951.86</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" customHeight="1" spans="1:16">
       <c r="A102" s="3">
-        <v>44682.0</v>
+        <v>44682</v>
       </c>
       <c r="B102" s="4">
         <v>2714.25</v>
@@ -5405,7 +6265,7 @@
         <v>5099.04</v>
       </c>
       <c r="G102" s="4">
-        <v>7050.0</v>
+        <v>7050</v>
       </c>
       <c r="H102" s="4">
         <v>2185.18</v>
@@ -5435,9 +6295,9 @@
         <v>3372.95</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" customHeight="1" spans="1:16">
       <c r="A103" s="3">
-        <v>44713.0</v>
+        <v>44713</v>
       </c>
       <c r="B103" s="4">
         <v>4390.71</v>
@@ -5461,7 +6321,7 @@
         <v>3480.57</v>
       </c>
       <c r="I103" s="4">
-        <v>4270.0</v>
+        <v>4270</v>
       </c>
       <c r="J103" s="4">
         <v>5081.16</v>
@@ -5485,9 +6345,9 @@
         <v>4115.73</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" customHeight="1" spans="1:16">
       <c r="A104" s="3">
-        <v>44743.0</v>
+        <v>44743</v>
       </c>
       <c r="B104" s="4">
         <v>3986.59</v>
@@ -5517,7 +6377,7 @@
         <v>2723.2</v>
       </c>
       <c r="K104" s="4">
-        <v>2800.0</v>
+        <v>2800</v>
       </c>
       <c r="L104" s="4">
         <v>3238.57</v>
@@ -5535,9 +6395,9 @@
         <v>3084.5</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" customHeight="1" spans="1:16">
       <c r="A105" s="3">
-        <v>44774.0</v>
+        <v>44774</v>
       </c>
       <c r="B105" s="4">
         <v>3431.39</v>
@@ -5585,9 +6445,9 @@
         <v>2631.38</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" customHeight="1" spans="1:16">
       <c r="A106" s="3">
-        <v>44805.0</v>
+        <v>44805</v>
       </c>
       <c r="B106" s="4">
         <v>3642.34</v>
@@ -5635,9 +6495,9 @@
         <v>3211.89</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" customHeight="1" spans="1:16">
       <c r="A107" s="3">
-        <v>44835.0</v>
+        <v>44835</v>
       </c>
       <c r="B107" s="4">
         <v>4044.47</v>
@@ -5685,9 +6545,9 @@
         <v>3644.46</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" customHeight="1" spans="1:16">
       <c r="A108" s="3">
-        <v>44866.0</v>
+        <v>44866</v>
       </c>
       <c r="B108" s="4">
         <v>3805.93</v>
@@ -5735,9 +6595,9 @@
         <v>2983.54</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" customHeight="1" spans="1:16">
       <c r="A109" s="3">
-        <v>44896.0</v>
+        <v>44896</v>
       </c>
       <c r="B109" s="4">
         <v>2799.92</v>
@@ -5749,7 +6609,7 @@
         <v>3332.41</v>
       </c>
       <c r="E109" s="4">
-        <v>2479.0</v>
+        <v>2479</v>
       </c>
       <c r="F109" s="4">
         <v>1081.76</v>
@@ -5785,9 +6645,9 @@
         <v>2247.1</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" customHeight="1" spans="1:16">
       <c r="A110" s="3">
-        <v>44927.0</v>
+        <v>44927</v>
       </c>
       <c r="B110" s="4">
         <v>1778.96</v>
@@ -5796,7 +6656,7 @@
         <v>896.77</v>
       </c>
       <c r="D110" s="4">
-        <v>3055.0</v>
+        <v>3055</v>
       </c>
       <c r="E110" s="4">
         <v>2278.41</v>
@@ -5835,9 +6695,9 @@
         <v>1869.74</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" customHeight="1" spans="1:16">
       <c r="A111" s="3">
-        <v>44958.0</v>
+        <v>44958</v>
       </c>
       <c r="B111" s="4">
         <v>1414.16</v>
@@ -5885,9 +6745,9 @@
         <v>1747.4</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" customHeight="1" spans="1:16">
       <c r="A112" s="3">
-        <v>44986.0</v>
+        <v>44986</v>
       </c>
       <c r="B112" s="4">
         <v>1362.35</v>
@@ -5935,9 +6795,9 @@
         <v>1712.87</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" customHeight="1" spans="1:16">
       <c r="A113" s="3">
-        <v>45017.0</v>
+        <v>45017</v>
       </c>
       <c r="B113" s="4">
         <v>1471.73</v>
@@ -5985,9 +6845,9 @@
         <v>1685.28</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" customHeight="1" spans="1:16">
       <c r="A114" s="3">
-        <v>45047.0</v>
+        <v>45047</v>
       </c>
       <c r="B114" s="4">
         <v>1555.82</v>
@@ -6035,9 +6895,9 @@
         <v>1723.09</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" customHeight="1" spans="1:16">
       <c r="A115" s="3">
-        <v>45078.0</v>
+        <v>45078</v>
       </c>
       <c r="B115" s="4">
         <v>2102.5</v>
@@ -6058,7 +6918,7 @@
         <v>4481.44</v>
       </c>
       <c r="H115" s="4">
-        <v>2004.0</v>
+        <v>2004</v>
       </c>
       <c r="I115" s="4">
         <v>1932.46</v>
@@ -6085,9 +6945,9 @@
         <v>2457.52</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" customHeight="1" spans="1:16">
       <c r="A116" s="3">
-        <v>45108.0</v>
+        <v>45108</v>
       </c>
       <c r="B116" s="4">
         <v>9218.91</v>
@@ -6135,9 +6995,9 @@
         <v>8953.98</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" customHeight="1" spans="1:16">
       <c r="A117" s="3">
-        <v>45139.0</v>
+        <v>45139</v>
       </c>
       <c r="B117" s="4">
         <v>9862.11</v>
@@ -6185,9 +7045,9 @@
         <v>8402.38</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" customHeight="1" spans="1:16">
       <c r="A118" s="3">
-        <v>45170.0</v>
+        <v>45170</v>
       </c>
       <c r="B118" s="4">
         <v>3662.7</v>
@@ -6235,9 +7095,9 @@
         <v>2980.25</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" customHeight="1" spans="1:16">
       <c r="A119" s="3">
-        <v>45200.0</v>
+        <v>45200</v>
       </c>
       <c r="B119" s="4">
         <v>2593.38</v>
@@ -6285,9 +7145,9 @@
         <v>2177.49</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" customHeight="1" spans="1:16">
       <c r="A120" s="3">
-        <v>45231.0</v>
+        <v>45231</v>
       </c>
       <c r="B120" s="4">
         <v>3280.06</v>
@@ -6335,9 +7195,9 @@
         <v>3024.69</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" customHeight="1" spans="1:16">
       <c r="A121" s="3">
-        <v>45261.0</v>
+        <v>45261</v>
       </c>
       <c r="B121" s="4">
         <v>3216.53</v>
@@ -6385,9 +7245,9 @@
         <v>2958.6</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" customHeight="1" spans="1:16">
       <c r="A122" s="3">
-        <v>45292.0</v>
+        <v>45292</v>
       </c>
       <c r="B122" s="4">
         <v>2341.13</v>
@@ -6435,9 +7295,9 @@
         <v>2440.84</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" customHeight="1" spans="1:16">
       <c r="A123" s="3">
-        <v>45323.0</v>
+        <v>45323</v>
       </c>
       <c r="B123" s="4">
         <v>2050.34</v>
@@ -6485,9 +7345,9 @@
         <v>2412.27</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" customHeight="1" spans="1:16">
       <c r="A124" s="3">
-        <v>45352.0</v>
+        <v>45352</v>
       </c>
       <c r="B124" s="4">
         <v>2167.04</v>
@@ -6535,9 +7395,9 @@
         <v>2340.54</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" customHeight="1" spans="1:16">
       <c r="A125" s="3">
-        <v>45383.0</v>
+        <v>45383</v>
       </c>
       <c r="B125" s="4">
         <v>2269.64</v>
@@ -6573,7 +7433,7 @@
         <v>2493.61</v>
       </c>
       <c r="M125" s="4">
-        <v>2406.0</v>
+        <v>2406</v>
       </c>
       <c r="N125" s="4">
         <v>2520.46</v>
@@ -6585,9 +7445,9 @@
         <v>2408.31</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" customHeight="1" spans="1:16">
       <c r="A126" s="3">
-        <v>45413.0</v>
+        <v>45413</v>
       </c>
       <c r="B126" s="4">
         <v>2163.47</v>
@@ -6635,9 +7495,9 @@
         <v>2432.41</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" customHeight="1" spans="1:16">
       <c r="A127" s="3">
-        <v>45444.0</v>
+        <v>45444</v>
       </c>
       <c r="B127" s="4">
         <v>2507.94</v>
@@ -6685,9 +7545,9 @@
         <v>3271.18</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" customHeight="1" spans="1:16">
       <c r="A128" s="3">
-        <v>45474.0</v>
+        <v>45474</v>
       </c>
       <c r="B128" s="4">
         <v>5234.31</v>
@@ -6735,52 +7595,25 @@
         <v>5285.54</v>
       </c>
     </row>
-    <row r="129">
-      <c r="B129" s="4">
-        <v>3022.15</v>
-      </c>
-      <c r="C129" s="4">
-        <v>1652.68</v>
-      </c>
-      <c r="D129" s="4">
-        <v>2707.55</v>
-      </c>
-      <c r="E129" s="4">
-        <v>2626.21</v>
-      </c>
-      <c r="F129" s="4">
-        <v>2378.52</v>
-      </c>
-      <c r="G129" s="4">
-        <v>2899.03</v>
-      </c>
-      <c r="H129" s="4">
-        <v>2440.17</v>
-      </c>
-      <c r="I129" s="4">
-        <v>2128.12</v>
-      </c>
-      <c r="J129" s="4">
-        <v>2656.66</v>
-      </c>
-      <c r="K129" s="4">
-        <v>2803.07</v>
-      </c>
-      <c r="L129" s="4">
-        <v>2482.71</v>
-      </c>
-      <c r="M129" s="4">
-        <v>2399.93</v>
-      </c>
-      <c r="N129" s="4">
-        <v>2726.24</v>
-      </c>
-      <c r="O129" s="4">
-        <v>3384.49</v>
-      </c>
+    <row r="129" customHeight="1" spans="2:16">
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+      <c r="L129" s="4"/>
+      <c r="M129" s="4"/>
+      <c r="N129" s="4"/>
+      <c r="O129" s="4"/>
       <c r="P129" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>